--- a/ParkingURP/files/Conductores/Conductores.xlsx
+++ b/ParkingURP/files/Conductores/Conductores.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>CODIGO</t>
   </si>
@@ -45,74 +45,95 @@
     <t>CARRERA</t>
   </si>
   <si>
-    <t>Roberto</t>
-  </si>
-  <si>
-    <t>Perez</t>
-  </si>
-  <si>
-    <t>Alvarez</t>
-  </si>
-  <si>
-    <t>roberto123@gmail.com</t>
-  </si>
-  <si>
     <t>Alumno</t>
   </si>
   <si>
     <t>Ingenieria Informatica</t>
   </si>
   <si>
-    <t>Rocio</t>
-  </si>
-  <si>
-    <t>Flores</t>
-  </si>
-  <si>
-    <t>Campos</t>
-  </si>
-  <si>
-    <t>rocio402@gmail.com</t>
-  </si>
-  <si>
     <t>Arquitectura</t>
   </si>
   <si>
-    <t>Fausto</t>
-  </si>
-  <si>
-    <t>Caceres</t>
-  </si>
-  <si>
-    <t>Ramirez</t>
-  </si>
-  <si>
-    <t>ramirez@gmail.com</t>
-  </si>
-  <si>
     <t>Docente</t>
   </si>
   <si>
-    <t>Ricardo</t>
-  </si>
-  <si>
-    <t>Qui¤onez</t>
-  </si>
-  <si>
-    <t>Avelino</t>
-  </si>
-  <si>
-    <t>richi@gmail.com</t>
-  </si>
-  <si>
     <t>Administrativo</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Olaechea</t>
+  </si>
+  <si>
+    <t>Bendezu</t>
+  </si>
+  <si>
+    <t>frankomarolaecheabendezu@gmail.com</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Hidalgo</t>
+  </si>
+  <si>
+    <t>Piani</t>
+  </si>
+  <si>
+    <t>jhp1441@gmail.com</t>
+  </si>
+  <si>
+    <t>Milagros</t>
+  </si>
+  <si>
+    <t>Cueche</t>
+  </si>
+  <si>
+    <t>Quispe</t>
+  </si>
+  <si>
+    <t>milagros.djesus98@gmail.com</t>
+  </si>
+  <si>
+    <t>Ingenieria Industrial</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Llerena</t>
+  </si>
+  <si>
+    <t>Vergaray</t>
+  </si>
+  <si>
+    <t>gloriandreallerena@gmail.com</t>
+  </si>
+  <si>
+    <t>Gloria</t>
+  </si>
+  <si>
+    <t>Trevi</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Cerna</t>
+  </si>
+  <si>
+    <t>Revichagua</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +264,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -545,7 +582,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -588,11 +625,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -624,6 +664,7 @@
     <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,103 +1017,166 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>201312553</v>
+        <v>201521296</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F2">
         <v>947364524</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>201412573</v>
+        <v>201410459</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F3">
         <v>936475847</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>78047586</v>
+        <v>201511288</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F4">
         <v>975643825</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>78047424</v>
+        <v>201611422</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F5">
         <v>935185746</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>71337486</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>935185746</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>72040843</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>935185746</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6:E7" r:id="rId5" display="gloriandreallerena@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>